--- a/documents/外部設計書_機能名.xlsx
+++ b/documents/外部設計書_機能名.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6603F0B6-3ED7-41EF-858B-F7359151C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40228D14-38D0-4EDA-B802-1B2F471015F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1665" windowWidth="22230" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -461,6 +461,13 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>更新テスト</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -888,27 +895,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -942,9 +928,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,6 +945,30 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4096,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:V1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4106,150 +4113,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -8756,150 +8765,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -13362,6 +13371,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -13369,14 +13385,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13392,7 +13401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A811FE7D-8F43-4C91-8314-6BFCB48D1BB6}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
@@ -13402,150 +13411,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38" t="s">
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="39" t="s">
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
-      <c r="AK1" s="21"/>
-      <c r="AL1" s="21"/>
-      <c r="AM1" s="21"/>
-      <c r="AN1" s="22"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="39"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="23" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="25" t="s">
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="27"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="43"/>
+      <c r="AN2" s="44"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="37"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -18016,6 +18025,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -18023,14 +18039,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計書_機能名.xlsx
+++ b/documents/外部設計書_機能名.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40228D14-38D0-4EDA-B802-1B2F471015F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9691D64C-F16E-4152-A75D-1BD57A01AEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1665" windowWidth="22230" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="435" windowWidth="26220" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -1865,6 +1865,88 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C6089D-E5F2-405E-A02D-8D7B1E01B11B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="1490382"/>
+          <a:ext cx="3048000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -198407"/>
+            <a:gd name="adj2" fmla="val 60147"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>番号に関する説明を書いておいてください。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>つまり番号と機能設計の番号は対応しているというような内容を書いておけば</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4103,8 +4185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:AN3"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU13" sqref="AU13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
